--- a/20 開発資料/05.改修管理/110_改修管理_タクチケ管理台帳.xlsx
+++ b/20 開発資料/05.改修管理/110_改修管理_タクチケ管理台帳.xlsx
@@ -7,18 +7,19 @@
     <workbookView xWindow="120" yWindow="60" windowWidth="13275" windowHeight="7005" tabRatio="602"/>
   </bookViews>
   <sheets>
-    <sheet name="タクチケ管理台帳" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="タクチケ管理台帳" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">タクチケ管理台帳!$D$1:$AB$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">タクチケ管理台帳!$A$1:$AE$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">タクチケ管理台帳!$D$1:$AB$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">タクチケ管理台帳!$A$1:$AE$31</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="91">
   <si>
     <t>利用年月日</t>
   </si>
@@ -514,6 +515,144 @@
     <rPh sb="2" eb="3">
       <t>ツキ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>タクチケ関連ＣＳＶ出力　指示画面</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>・抽出条件の追加</t>
+    <rPh sb="1" eb="3">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>　　①　請求月</t>
+    <rPh sb="4" eb="6">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>　　</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>　　②　対象データ</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>　　③　実施月　（YYYY年MM月)</t>
+    <rPh sb="4" eb="6">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>・一覧の表示は開催月の標準</t>
+    <rPh sb="1" eb="3">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイサイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>　　　　　　請求不可を除く("N"を除く)</t>
+    <rPh sb="6" eb="8">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>　　　　　　請求不可のみ("N"のみ)</t>
+    <rPh sb="6" eb="8">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>　　　　　　全て("N"を含む)</t>
+    <rPh sb="6" eb="7">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>・詳細ボタンをCSV出力ボタンに変更</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -522,11 +661,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="186" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="187" formatCode="#,##0;[Red]\(#,##0\)"/>
-    <numFmt numFmtId="189" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="190" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -700,11 +839,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -714,7 +853,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -723,22 +862,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -748,10 +887,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="190" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -760,7 +899,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -874,6 +1013,66 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8315325" cy="6029325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1466,10 +1665,91 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="N2:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AE78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA35" sqref="AA35"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
